--- a/预测效果_20231101.xlsx
+++ b/预测效果_20231101.xlsx
@@ -501,16 +501,16 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>1.956211463670766</v>
+        <v>5.074990720107274</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2">
-        <v>1.956211463670766</v>
+        <v>5.074990720107274</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.08611420440868622</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -519,7 +519,7 @@
         <v>2.333333</v>
       </c>
       <c r="K2">
-        <v>0.02189426816461681</v>
+        <v>1.537495360053637</v>
       </c>
       <c r="L2">
         <v>0.1666665000000001</v>
@@ -539,16 +539,16 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>2.277026889878548</v>
+        <v>3.43</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
-        <v>2.277026889878548</v>
+        <v>4.854101966249685</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3819660112501051</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>2.166667</v>
       </c>
       <c r="K3">
-        <v>1.277026889878548</v>
+        <v>2.43</v>
       </c>
       <c r="L3">
         <v>1.166667</v>
@@ -577,16 +577,16 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4">
-        <v>2.313717173313381</v>
+        <v>4.45941170815567</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3801960972814429</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -595,7 +595,7 @@
         <v>1.7</v>
       </c>
       <c r="K4">
-        <v>0.345</v>
+        <v>0.255</v>
       </c>
       <c r="L4">
         <v>0.15</v>
@@ -615,16 +615,16 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5">
-        <v>2.553050005725393</v>
+        <v>4.372281323269014</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5425728922436619</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -633,7 +633,7 @@
         <v>1.8</v>
       </c>
       <c r="K5">
-        <v>0.12</v>
+        <v>0.09499999999999997</v>
       </c>
       <c r="L5">
         <v>0.09999999999999998</v>
@@ -653,16 +653,16 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.6679206685233201</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6">
-        <v>2.752038755041979</v>
+        <v>4.281952280144325</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6679206685233201</v>
       </c>
       <c r="I6">
         <v>6</v>
@@ -671,7 +671,7 @@
         <v>1.857143</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.8886798885794467</v>
       </c>
       <c r="L6">
         <v>0.6904761666666667</v>
@@ -691,16 +691,16 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>2.6</v>
+        <v>2.02</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7">
-        <v>4.346080684583596</v>
+        <v>7.197905971925756</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4340313426914146</v>
       </c>
       <c r="I7">
         <v>8</v>
@@ -709,7 +709,7 @@
         <v>2.892857</v>
       </c>
       <c r="K7">
-        <v>0.675</v>
+        <v>0.7475000000000001</v>
       </c>
       <c r="L7">
         <v>0.6383928750000001</v>
@@ -729,16 +729,16 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8">
-        <v>2.233669924571631</v>
+        <v>5.408324053440608</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4194475377420197</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -747,7 +747,7 @@
         <v>8.833333</v>
       </c>
       <c r="K8">
-        <v>0.8328571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8">
         <v>0.2619047142857142</v>
@@ -773,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="G9">
-        <v>0.6153846153846154</v>
+        <v>1.747546895706428</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="G10">
-        <v>0.6153846153846154</v>
+        <v>1.747546895706428</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -881,16 +881,16 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.183503419072274</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12">
-        <v>1.384615384615385</v>
+        <v>3.449489742783178</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.183503419072274</v>
       </c>
       <c r="I12">
         <v>1.01</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.00990099009900991</v>
+        <v>0.8183134464630951</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>22</v>
       </c>
       <c r="G15">
-        <v>0.6153846153846154</v>
+        <v>1.747546895706428</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>23</v>
       </c>
       <c r="G16">
-        <v>0.6153846153846153</v>
+        <v>1.747546895706428</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>0.33</v>
+        <v>2.72</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="G17">
-        <v>3.668349242051069</v>
+        <v>7.898979485566356</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.367006838144548</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.89</v>
+        <v>0.09333333333333327</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1109,16 +1109,16 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>4.79057938124621</v>
+        <v>6.22</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
       <c r="G18">
-        <v>4.79057938124621</v>
+        <v>10.64852927038918</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.4504902432036078</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>10.5</v>
       </c>
       <c r="K18">
-        <v>3.79057938124621</v>
+        <v>5.22</v>
       </c>
       <c r="L18">
         <v>9.5</v>
@@ -1147,13 +1147,13 @@
         <v>12</v>
       </c>
       <c r="E19">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19">
-        <v>0.8597482753924602</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.504950495049505</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>17</v>
       </c>
       <c r="G20">
-        <v>0.8597482753924602</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="G22">
-        <v>1.358330240035758</v>
+        <v>3.23746859276655</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>22</v>
       </c>
       <c r="G25">
-        <v>0.8597482753924602</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>23</v>
       </c>
       <c r="G26">
-        <v>0.6035947607695686</v>
+        <v>1.549038105676658</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1451,16 +1451,16 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>0.7</v>
+        <v>3.44</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
       <c r="G27">
-        <v>4.034554315867447</v>
+        <v>7.242640687119286</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1.585786437626905</v>
       </c>
       <c r="I27">
         <v>1.01</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.306930693069307</v>
+        <v>2.405940594059406</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1489,16 +1489,16 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <v>0.71</v>
+        <v>2.33</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
       <c r="G28">
-        <v>4.743298331653398</v>
+        <v>9.849827584156744</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.1833908052810855</v>
       </c>
       <c r="I28">
         <v>6</v>
@@ -1507,7 +1507,7 @@
         <v>10.666667</v>
       </c>
       <c r="K28">
-        <v>0.8816666666666667</v>
+        <v>0.6116666666666667</v>
       </c>
       <c r="L28">
         <v>0.7777778333333334</v>
@@ -1533,7 +1533,7 @@
         <v>16</v>
       </c>
       <c r="G29">
-        <v>0.8440467018851406</v>
+        <v>1.869693845669907</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1565,13 +1565,13 @@
         <v>12</v>
       </c>
       <c r="E30">
-        <v>3.673868921608978</v>
+        <v>8.334983296193094</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30">
-        <v>3.673868921608978</v>
+        <v>8.334983296193094</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0.08153276959775546</v>
+        <v>1.083745824048274</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         <v>18</v>
       </c>
       <c r="G31">
-        <v>0.5924449024328534</v>
+        <v>1.4</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>19</v>
       </c>
       <c r="G32">
-        <v>1.333448908099243</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>20</v>
       </c>
       <c r="G33">
-        <v>1.184889804865707</v>
+        <v>2.8</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>22</v>
       </c>
       <c r="G35">
-        <v>0.8440467018851406</v>
+        <v>1.869693845669907</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>23</v>
       </c>
       <c r="G36">
-        <v>0.8440467018851406</v>
+        <v>1.869693845669907</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1831,16 +1831,16 @@
         <v>12</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.6564404225837306</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
       </c>
       <c r="G37">
-        <v>3.962661964815137</v>
+        <v>7.630678732248809</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.6564404225837306</v>
       </c>
       <c r="I37">
         <v>7</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0.8571428571428571</v>
+        <v>0.9062227967737527</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -1869,16 +1869,16 @@
         <v>12</v>
       </c>
       <c r="E38">
-        <v>2.69</v>
+        <v>3.78</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
       <c r="G38">
-        <v>5.837920710293248</v>
+        <v>10.79883542790354</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.6226104129210417</v>
       </c>
       <c r="I38">
         <v>14</v>
@@ -1887,7 +1887,7 @@
         <v>15.333333</v>
       </c>
       <c r="K38">
-        <v>0.8078571428571429</v>
+        <v>0.7300000000000001</v>
       </c>
       <c r="L38">
         <v>0.09523807142857141</v>
@@ -1907,13 +1907,13 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>2.487455967418821</v>
+        <v>2.88</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39">
-        <v>2.487455967418821</v>
+        <v>5.242640687119286</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0.1708480108603929</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -1945,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="E40">
-        <v>3.74</v>
+        <v>3.62</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
       </c>
       <c r="G40">
-        <v>4.31476709688927</v>
+        <v>8.708203932499369</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         <v>18</v>
       </c>
       <c r="G41">
-        <v>0.5818795815995705</v>
+        <v>1.284700655416562</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>19</v>
       </c>
       <c r="G42">
-        <v>1.761616361627988</v>
+        <v>3.525915736900585</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>20</v>
       </c>
       <c r="G43">
-        <v>1.163759163199141</v>
+        <v>2.569401310833123</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>22</v>
       </c>
       <c r="G45">
-        <v>1.43825569896309</v>
+        <v>2.902734644166456</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2179,7 +2179,7 @@
         <v>23</v>
       </c>
       <c r="G46">
-        <v>1.017078710309777</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <v>5.655053506314996</v>
+        <v>4.82</v>
       </c>
       <c r="F47" t="s">
         <v>24</v>
       </c>
       <c r="G47">
-        <v>5.655053506314996</v>
+        <v>10.18450109047576</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.8273885253969668</v>
       </c>
       <c r="I47">
         <v>3</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.8850178354383319</v>
+        <v>0.6066666666666668</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -2249,16 +2249,16 @@
         <v>12</v>
       </c>
       <c r="E48">
-        <v>9.909653795694812</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
       </c>
       <c r="G48">
-        <v>9.909653795694812</v>
+        <v>18.10328515869712</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.2512858994819123</v>
       </c>
       <c r="I48">
         <v>8</v>
@@ -2267,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="K48">
-        <v>0.2387067244618515</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="L48">
         <v>0.125</v>
@@ -2287,13 +2287,13 @@
         <v>12</v>
       </c>
       <c r="E49">
-        <v>2.73</v>
+        <v>2.49</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>5.739559219462827</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>2.266667</v>
       </c>
       <c r="K49">
-        <v>0.6587499999999999</v>
+        <v>0.68875</v>
       </c>
       <c r="L49">
         <v>0.716666625</v>
@@ -2325,13 +2325,13 @@
         <v>12</v>
       </c>
       <c r="E50">
-        <v>0.66</v>
+        <v>1.07</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
       </c>
       <c r="G50">
-        <v>4.281709614312105</v>
+        <v>8.155830767156743</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>2.8</v>
       </c>
       <c r="K50">
-        <v>0.835</v>
+        <v>0.7324999999999999</v>
       </c>
       <c r="L50">
         <v>0.3</v>
@@ -2369,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="G51">
-        <v>0.5718498140467837</v>
+        <v>1.192638461192791</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2401,16 +2401,16 @@
         <v>12</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0.02414972930781423</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52">
-        <v>1.824807680927192</v>
+        <v>3.356122240647986</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.02414972930781423</v>
       </c>
       <c r="I52">
         <v>5</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0.8</v>
+        <v>0.9951700541384371</v>
       </c>
       <c r="L52">
         <v>0.8</v>
@@ -2445,7 +2445,7 @@
         <v>20</v>
       </c>
       <c r="G53">
-        <v>1.287434208703792</v>
+        <v>2.613865505825479</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>21</v>
       </c>
       <c r="G54">
-        <v>1.143699628093567</v>
+        <v>2.385276922385581</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2515,16 +2515,16 @@
         <v>12</v>
       </c>
       <c r="E55">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
       </c>
       <c r="G55">
-        <v>1.526813717540211</v>
+        <v>2.81384835095701</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>0.0144315020619491</v>
       </c>
       <c r="I55">
         <v>4</v>
@@ -2533,7 +2533,7 @@
         <v>1.066667</v>
       </c>
       <c r="K55">
-        <v>0.965</v>
+        <v>0.9625</v>
       </c>
       <c r="L55">
         <v>0.73333325</v>
@@ -2559,7 +2559,7 @@
         <v>23</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>1.913186406487609</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2591,16 +2591,16 @@
         <v>12</v>
       </c>
       <c r="E57">
-        <v>0.76</v>
+        <v>2.45</v>
       </c>
       <c r="F57" t="s">
         <v>24</v>
       </c>
       <c r="G57">
-        <v>5.808764349513141</v>
+        <v>9.6424646663299</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.9763213016995569</v>
       </c>
       <c r="I57">
         <v>13</v>
@@ -2609,7 +2609,7 @@
         <v>3.464286</v>
       </c>
       <c r="K57">
-        <v>0.9415384615384615</v>
+        <v>0.8115384615384615</v>
       </c>
       <c r="L57">
         <v>0.7335164615384616</v>
@@ -2629,16 +2629,16 @@
         <v>12</v>
       </c>
       <c r="E58">
-        <v>7.37</v>
+        <v>6.8</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
       </c>
       <c r="G58">
-        <v>10.72911190726932</v>
+        <v>18.06657544505305</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.811141518315651</v>
       </c>
       <c r="I58">
         <v>8</v>
@@ -2647,7 +2647,7 @@
         <v>7</v>
       </c>
       <c r="K58">
-        <v>0.07874999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="L58">
         <v>0.125</v>
@@ -2667,13 +2667,13 @@
         <v>12</v>
       </c>
       <c r="E59">
-        <v>5.417966048545466</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59">
-        <v>5.417966048545466</v>
+        <v>9.982122564908861</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>3.904762</v>
       </c>
       <c r="K59">
-        <v>0.08359320970909323</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="L59">
         <v>0.2190476</v>
@@ -2705,16 +2705,16 @@
         <v>12</v>
       </c>
       <c r="E60">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60">
-        <v>4.779976343692022</v>
+        <v>8.388734908183775</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.0370883639387416</v>
       </c>
       <c r="I60">
         <v>9</v>
@@ -2723,7 +2723,7 @@
         <v>3.142857</v>
       </c>
       <c r="K60">
-        <v>0.6844444444444444</v>
+        <v>0.6911111111111112</v>
       </c>
       <c r="L60">
         <v>0.6507936666666667</v>
@@ -2749,7 +2749,7 @@
         <v>18</v>
       </c>
       <c r="G61">
-        <v>0.5623121524243544</v>
+        <v>1.117156741649222</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2781,13 +2781,13 @@
         <v>12</v>
       </c>
       <c r="E62">
-        <v>3.02</v>
+        <v>1.57</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62">
-        <v>3.359517683147101</v>
+        <v>6.103570079844435</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>2.25</v>
       </c>
       <c r="K62">
-        <v>0.6225000000000001</v>
+        <v>0.80375</v>
       </c>
       <c r="L62">
         <v>0.71875</v>
@@ -2825,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="G63">
-        <v>1.703617172629925</v>
+        <v>3.195870475150391</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>21</v>
       </c>
       <c r="G64">
-        <v>1.266101223251088</v>
+        <v>2.462911636061258</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2895,13 +2895,13 @@
         <v>12</v>
       </c>
       <c r="E65">
-        <v>2.723188081930942</v>
+        <v>2.53</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
       </c>
       <c r="G65">
-        <v>2.723188081930942</v>
+        <v>4.930834336909582</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>1.904762</v>
       </c>
       <c r="K65">
-        <v>0.3192029795172644</v>
+        <v>0.3675</v>
       </c>
       <c r="L65">
         <v>0.5238095</v>
@@ -2933,13 +2933,13 @@
         <v>12</v>
       </c>
       <c r="E66">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="F66" t="s">
         <v>23</v>
       </c>
       <c r="G66">
-        <v>2.474635491346242</v>
+        <v>4.680834336909582</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>1.222222</v>
       </c>
       <c r="K66">
-        <v>0.8575</v>
+        <v>0.87</v>
       </c>
       <c r="L66">
         <v>0.6944445</v>
@@ -2971,16 +2971,16 @@
         <v>12</v>
       </c>
       <c r="E67">
-        <v>9.326897516598983</v>
+        <v>10.6</v>
       </c>
       <c r="F67" t="s">
         <v>24</v>
       </c>
       <c r="G67">
-        <v>9.326897516598983</v>
+        <v>15.89061439958807</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>0.536461866803978</v>
       </c>
       <c r="I67">
         <v>14</v>
@@ -2989,7 +2989,7 @@
         <v>5.583333</v>
       </c>
       <c r="K67">
-        <v>0.3337930345286441</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L67">
         <v>0.6011905000000001</v>
@@ -3009,16 +3009,16 @@
         <v>13</v>
       </c>
       <c r="E68">
-        <v>188.6923076923077</v>
+        <v>175.6666666666667</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
       </c>
       <c r="G68">
-        <v>188.6923076923077</v>
+        <v>175.6666666666667</v>
       </c>
       <c r="H68">
-        <v>23.492482485013</v>
+        <v>55.30517411656203</v>
       </c>
       <c r="I68">
         <v>214</v>
@@ -3027,7 +3027,7 @@
         <v>182</v>
       </c>
       <c r="K68">
-        <v>0.1182602444284688</v>
+        <v>0.1791277258566979</v>
       </c>
       <c r="L68">
         <v>0.1495327102803738</v>
@@ -3047,16 +3047,16 @@
         <v>13</v>
       </c>
       <c r="E69">
-        <v>170.74</v>
+        <v>185.25</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
       </c>
       <c r="G69">
-        <v>189.6296296296296</v>
+        <v>185.25</v>
       </c>
       <c r="H69">
-        <v>27.44748507920775</v>
+        <v>79.7005447669198</v>
       </c>
       <c r="I69">
         <v>80</v>
@@ -3065,7 +3065,7 @@
         <v>235.25</v>
       </c>
       <c r="K69">
-        <v>1.13425</v>
+        <v>1.315625</v>
       </c>
       <c r="L69">
         <v>1.940625</v>
@@ -3085,16 +3085,16 @@
         <v>13</v>
       </c>
       <c r="E70">
-        <v>164.98</v>
+        <v>164.2</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
       </c>
       <c r="G70">
-        <v>185.7142857142857</v>
+        <v>164.2</v>
       </c>
       <c r="H70">
-        <v>25.1603657232441</v>
+        <v>60.83191982047842</v>
       </c>
       <c r="I70">
         <v>62</v>
@@ -3103,7 +3103,7 @@
         <v>219.75</v>
       </c>
       <c r="K70">
-        <v>1.660967741935484</v>
+        <v>1.648387096774193</v>
       </c>
       <c r="L70">
         <v>2.544354838709677</v>
@@ -3123,16 +3123,16 @@
         <v>13</v>
       </c>
       <c r="E71">
-        <v>149.29</v>
+        <v>140.42</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
       </c>
       <c r="G71">
-        <v>181.448275862069</v>
+        <v>452.4423617358942</v>
       </c>
       <c r="H71">
-        <v>22.08000008356416</v>
+        <v>45.40810164359081</v>
       </c>
       <c r="I71">
         <v>69</v>
@@ -3141,7 +3141,7 @@
         <v>223.25</v>
       </c>
       <c r="K71">
-        <v>1.163623188405797</v>
+        <v>1.035072463768116</v>
       </c>
       <c r="L71">
         <v>2.235507246376812</v>
@@ -3161,16 +3161,16 @@
         <v>13</v>
       </c>
       <c r="E72">
-        <v>168.21</v>
+        <v>135.55</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
       </c>
       <c r="G72">
-        <v>177.7</v>
+        <v>430.3015945784674</v>
       </c>
       <c r="H72">
-        <v>19.71558093702194</v>
+        <v>37.89946847384421</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -3179,7 +3179,7 @@
         <v>156.25</v>
       </c>
       <c r="K72">
-        <v>41.0525</v>
+        <v>32.8875</v>
       </c>
       <c r="L72">
         <v>38.0625</v>
@@ -3199,16 +3199,16 @@
         <v>13</v>
       </c>
       <c r="E73">
-        <v>114.63</v>
+        <v>90.17</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
       </c>
       <c r="G73">
-        <v>172.0967741935484</v>
+        <v>424.3581637417637</v>
       </c>
       <c r="H73">
-        <v>13.68014203507562</v>
+        <v>17.88061208607877</v>
       </c>
       <c r="I73">
         <v>8</v>
@@ -3217,7 +3217,7 @@
         <v>71.041529</v>
       </c>
       <c r="K73">
-        <v>13.32875</v>
+        <v>10.27125</v>
       </c>
       <c r="L73">
         <v>7.880191125</v>
